--- a/Firmware/HMI/DGUS_MedidorDeCuero/Lista de variables.xlsx
+++ b/Firmware/HMI/DGUS_MedidorDeCuero/Lista de variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eplim\Dropbox\proyectos_eplimin\Maquina_para_medir_cuero\Software\HMI\DGUS_MedidorDeCuero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518D3076-7E5B-48FA-B8FB-1E91D2ECC1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38FD9D3-CE7B-4146-A804-80B0E38FD559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="89">
   <si>
     <t>Seccion</t>
   </si>
@@ -60,12 +60,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>110A</t>
-  </si>
-  <si>
-    <t>110B</t>
-  </si>
-  <si>
     <t>121A</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>Icono de velocidad. Para indicar las dos velocidades del motor. Si es lento Valor = 0/ Si es rápido Valor = 1.</t>
   </si>
   <si>
-    <t>Icono de estado. Por ahora, el error que se contempla es la revisión de la protección de los guardamotores. Si hay error Valor = 0 /  Si está Ok = 1.</t>
-  </si>
-  <si>
     <t>Valores</t>
   </si>
   <si>
@@ -145,12 +136,6 @@
   </si>
   <si>
     <t>Return Key Code</t>
-  </si>
-  <si>
-    <t>Return Val 0</t>
-  </si>
-  <si>
-    <t>Cambio a pagina 3 prueba de sensores. En este caso el motor se puede activar o desactivar para las pruebas. El personal normalmente no toca esto.</t>
   </si>
   <si>
     <t>1 a 11</t>
@@ -166,13 +151,6 @@
 Drag Icon</t>
   </si>
   <si>
-    <t>Cambio a página 4 que nos abre un menú desplegable para escoger la regleta.
-Dentro de esta página, escogeremos la regleta y se devolverá el valor a través de un Return Key Code en la dirección 1101</t>
-  </si>
-  <si>
-    <t>Icono que varía su valor de entre 1 a 11. Indica que regleta estaremos revisando. El valor cambia luego a través de un Return Key Code en la pag 4</t>
-  </si>
-  <si>
     <t>Como son 10 de estos Bit Icon y en la misma dirección, solo es necesario pasar un número de entre 0 - 1024 para encender los leds.
 Se indica que leds detectan y cuáles no. Ayudará en la depuración y Umbral.</t>
   </si>
@@ -187,22 +165,9 @@
     <t>Para modificar el umbral</t>
   </si>
   <si>
-    <t>Umbral modificado. Si lo hacemos variar al igual que el Slider Display, entonces, ya no es necesario utilizar otra dirección de variable.
-Por ahora, que esté así de separado, he visto que así normalmente lo trabajas.</t>
-  </si>
-  <si>
     <t>0 a 2</t>
   </si>
   <si>
-    <t>Indica 3 estados. Por defecto, Por defecto en Valor = 0, luego de presionar el Return Key Code de 0x110A, si se guarda correctamente Valor = 1, si no, Valor = 2.</t>
-  </si>
-  <si>
-    <t>Para confirmar y guardar la configuración del Umbral actual.</t>
-  </si>
-  <si>
-    <t>Cambio a página 20 para modificar la conversión del ft2</t>
-  </si>
-  <si>
     <t>Texto 30.48 (No se modifica)</t>
   </si>
   <si>
@@ -222,9 +187,6 @@
   </si>
   <si>
     <t>Para indicar de que se está seleccionando este valor.</t>
-  </si>
-  <si>
-    <t>Cambio a pagina 6 Datos del cliente</t>
   </si>
   <si>
     <t>Codigo del color, máx 10 caracteres -&gt; max VP = 1324</t>
@@ -243,12 +205,6 @@
 Data Variable Input</t>
   </si>
   <si>
-    <t>Cambio a página 7 Configuración fecha</t>
-  </si>
-  <si>
-    <t>Cambio a página 10 Configuración hora</t>
-  </si>
-  <si>
     <t>Día</t>
   </si>
   <si>
@@ -270,30 +226,12 @@
     <t>Indica las unidades escogidas en la página 18. Si es ft2 entonces  Valor = 0 / Si es m2 entonces Valor = 1</t>
   </si>
   <si>
-    <t>Cambio a pagina 18 Escoger Unidades, aquí los Return Key Code modifican directamente la dirección 0x1350 a 0 o 1</t>
-  </si>
-  <si>
-    <t>Botón para retroceder y no guardar nada</t>
-  </si>
-  <si>
-    <t>Bitón para confirmar y guardar</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>Indica el estado del guardado. Por defecto Valor = 0 / Cuando guarde el valor correctamente queda un momento en Valor = 1 /  Cuando no guarde el valor queda un momento en Valor = 2</t>
   </si>
   <si>
-    <t>Botón para cerrar el lote actual e imprimir el resumen correspondiente</t>
-  </si>
-  <si>
     <t>Botón para eliminar el último cuero medido</t>
   </si>
   <si>
-    <t>Botón para cambiar a página 12, Lista de Cueros medidos en el presente lote</t>
-  </si>
-  <si>
     <t>Medida de Cuero 1</t>
   </si>
   <si>
@@ -310,6 +248,56 @@
   </si>
   <si>
     <t>1010-10FF</t>
+  </si>
+  <si>
+    <t>Contiene la variable que indica el cambio de página.</t>
+  </si>
+  <si>
+    <t>0 a 20</t>
+  </si>
+  <si>
+    <t>Icono que varía su valor de entre 1 a 11. Indica que regleta estaremos revisando.</t>
+  </si>
+  <si>
+    <t>Botón para confirmar y guardar</t>
+  </si>
+  <si>
+    <t>Presentación del umbral</t>
+  </si>
+  <si>
+    <t>3, 6, 7, 10, 18, 20</t>
+  </si>
+  <si>
+    <t>3, 4, 6, 7, 10, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>1, 3, 6, 7, 10, 12, 13, 14,
+15, 16, 17, 18, 20</t>
+  </si>
+  <si>
+    <t>3, 4 100</t>
+  </si>
+  <si>
+    <t>Var Icon Display
+Return Key Code</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>1, 6</t>
+  </si>
+  <si>
+    <t>1, 7</t>
+  </si>
+  <si>
+    <t>1, 18</t>
+  </si>
+  <si>
+    <t>12, 13, 14, 15, 16, 17</t>
   </si>
 </sst>
 </file>
@@ -408,9 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,6 +407,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,40 +693,41 @@
   <dimension ref="A2:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="17.21875" customWidth="1"/>
     <col min="7" max="7" width="144.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -757,21 +746,11 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -780,16 +759,16 @@
         <v>1002</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="1">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -799,775 +778,697 @@
         <v>1003</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1110</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6">
+        <v>1005</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>1111</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
-        <v>1050</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <v>1051</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>1060</v>
+        <v>1111</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>1080</v>
+        <v>1051</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>1100</v>
+        <v>1070</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>1101</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1080</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>1102</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>1112</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="6">
-        <v>1104</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="6">
-        <v>1108</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1101</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="6">
-        <v>1109</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="6">
+        <v>1112</v>
+      </c>
+      <c r="D23" s="6">
         <v>3</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C24" s="6">
+        <v>1104</v>
+      </c>
+      <c r="D24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="E24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="6">
+        <v>1108</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="6">
+        <v>1109</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>1210</v>
-      </c>
-      <c r="D28" s="1">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="9">
-        <v>20</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="1">
+        <v>1210</v>
+      </c>
+      <c r="D30" s="1">
         <v>20</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="9">
+        <v>20</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1">
-        <v>1220</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="9">
         <v>20</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>24</v>
+      <c r="E32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="9">
-        <v>20</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C34" s="1">
+        <v>1220</v>
+      </c>
+      <c r="D34" s="1">
         <v>20</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0</v>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9">
+        <v>20</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1">
-        <v>1230</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="9">
         <v>20</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>24</v>
+      <c r="E36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="9">
-        <v>20</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="9">
+      <c r="C38" s="1">
+        <v>1230</v>
+      </c>
+      <c r="D38" s="1">
         <v>20</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="9">
+      <c r="E38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="9">
+        <v>20</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="9">
+        <v>20</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="10">
         <v>0</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
-        <v>1300</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <v>1310</v>
-      </c>
-      <c r="D41" s="9">
-        <v>6</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
-        <v>1320</v>
-      </c>
-      <c r="D42" s="9">
-        <v>6</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1">
-        <v>1330</v>
-      </c>
-      <c r="D43" s="9">
-        <v>6</v>
+        <v>1310</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
-        <v>1340</v>
-      </c>
-      <c r="D44" s="9">
-        <v>6</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>69</v>
+        <v>1320</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1">
-        <v>1341</v>
-      </c>
-      <c r="D45" s="9">
-        <v>7</v>
+        <v>1330</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1">
-        <v>1342</v>
-      </c>
-      <c r="D46" s="9">
-        <v>7</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>73</v>
+      <c r="C46" s="6">
+        <v>1340</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
-        <v>1343</v>
-      </c>
-      <c r="D47" s="9">
-        <v>7</v>
+        <v>1341</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
-        <v>1344</v>
-      </c>
-      <c r="D48" s="9">
-        <v>6</v>
+        <v>1342</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="10">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1">
-        <v>1345</v>
-      </c>
-      <c r="D49" s="9">
-        <v>6</v>
+        <v>1343</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="10">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1580,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1599,13 +1500,13 @@
         <v>10</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1618,13 +1519,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1633,95 +1534,67 @@
       <c r="C53" s="1">
         <v>1350</v>
       </c>
-      <c r="D53" s="9">
-        <v>6</v>
+      <c r="D53" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1">
-        <v>1360</v>
-      </c>
-      <c r="D54" s="9">
-        <v>6</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>1400</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1">
-        <v>1400</v>
-      </c>
-      <c r="D56" s="9">
-        <v>1</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -1729,15 +1602,15 @@
       <c r="C59" s="1">
         <v>1501</v>
       </c>
-      <c r="D59" s="1">
-        <v>0</v>
+      <c r="D59" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1757,13 +1630,13 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1774,13 +1647,13 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1791,30 +1664,30 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="9" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
